--- a/biology/Biochimie/Sulfatide/Sulfatide.xlsx
+++ b/biology/Biochimie/Sulfatide/Sulfatide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sulfatide est un sulfolipide qui correspond à un galactocérébroside sulfaté. Ce type de composés est produit en premier lieu par les oligodendrocytes, des cellules de la substance grise et de la substance blanche du cerveau et de la moelle épinière, constituant le système nerveux central.
 </t>
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Jing-Qi Huang, Jacquetta M. Trasler, Suleiman Igdoura, Jean Michaud, Nobuo Hanai et Roy A. Gravel, « Apoptotic Cell Death in Mouse Models of GM2 Gangliosidosis and Observations on Human Tay-Sachs and Sandhoff Diseases », Human Molecular Genetics, vol. 6, no 11,‎ 1997, p. 1879-1885 (lire en ligne) DOI 10.1093/hmg/6.11.1879
  Portail de la chimie   Portail de la biochimie                    </t>
